--- a/classeurs/fonctions_base.xlsx
+++ b/classeurs/fonctions_base.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Activité 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Activité 2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Activité 3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Article</t>
   </si>
@@ -87,6 +88,39 @@
   </si>
   <si>
     <t xml:space="preserve">C.A. Moyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofiène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soulaymène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souhail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samer</t>
   </si>
 </sst>
 </file>
@@ -97,11 +131,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,9 +157,17 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +178,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,12 +290,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -274,7 +339,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -328,11 +393,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.1"/>
@@ -414,7 +479,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -433,7 +498,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
   </cols>
@@ -530,7 +595,146 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="14.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="12" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/classeurs/fonctions_base.xlsx
+++ b/classeurs/fonctions_base.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Activité 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Activité 2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Activité 3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Activité 4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Activité 5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t xml:space="preserve">Article</t>
   </si>
@@ -121,17 +123,97 @@
   </si>
   <si>
     <t xml:space="preserve">Samer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meilleure Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pire Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne du groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendement des ouvriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouvrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendement moyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chakib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayoub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaouki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Naissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Âge (jours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (dimanche) et 
+7 (samedi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -166,8 +248,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +268,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,7 +333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +378,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,16 +390,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -339,7 +435,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -377,7 +473,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -397,7 +493,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.1"/>
@@ -481,8 +577,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -495,10 +591,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
   </cols>
@@ -513,7 +609,7 @@
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -566,25 +662,25 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="9"/>
@@ -597,8 +693,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -608,26 +704,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="14.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="12" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="14.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="13" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="9" t="n">
@@ -635,7 +731,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="9" t="n">
@@ -643,16 +739,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -728,16 +824,318 @@
       </c>
       <c r="D11" s="6"/>
     </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="13" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="13" width="12.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="13" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="n">
+        <v>202</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>197</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="13" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="13" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>41160</v>
+      </c>
+      <c r="B2" s="17" t="n">
+        <f aca="true">TODAY()</f>
+        <v>44462</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>